--- a/biology/Botanique/Ronell_Renett_Klopper/Ronell_Renett_Klopper.xlsx
+++ b/biology/Botanique/Ronell_Renett_Klopper/Ronell_Renett_Klopper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronell Renett Klopper, née Visser le 26 janvier 1974 (50 ans), est une botaniste sud-africaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronell Renett Klopper, née Visser le 26 janvier 1974 (50 ans), est une botaniste sud-africaine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ronell R. Klopper et al., Checklist of the flowering plants of sub-saharan Africa : An index of accepted names and synonyms, Pretoria, SABONET, coll. « Rapport du Réseau de la Diversité Botanique d'Afrique Australe » (no 42), 2006, 894 p. (ISBN 978-1-919976-27-3 et 1-919976-27-2)
 Ronell R. Klopper, Gideon F. Smith et A.C. Chikuni, L'initiative taxonomique mondiale : Documenter la biodiversité en Afrique : Délibérations de l'atelier organisé au Jardin Botanique National de Kirstenbosch, Cape Town, Afrique du Sud (27 février - 1 mars 2001), coll. « Strelitzia » (no 12), 2001, 204 p. (ISBN 978-1-919795-63-8 et 1-919795-63-4)
